--- a/dtpu_configurations/only_integer32/100mhz/mxu_8x8/timing.xlsx
+++ b/dtpu_configurations/only_integer32/100mhz/mxu_8x8/timing.xlsx
@@ -119,10 +119,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="n" s="4">
-        <v>0.5565645694732666</v>
+        <v>0.055234041064977646</v>
       </c>
       <c r="C2" t="n" s="4">
-        <v>0.01776534505188465</v>
+        <v>0.04817235469818115</v>
       </c>
     </row>
   </sheetData>
